--- a/output/3Y_P13_KFSDIV.xlsx
+++ b/output/3Y_P13_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8083</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5636</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.1788</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.5668</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.962</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2659</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.4103</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.3976</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.9013</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.3527</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8804</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6268</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3636</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8711</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1252</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1934</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1176</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3311</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3637</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6447</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.486</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.1958</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4264</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>17.107</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8083</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5636</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.1788</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.5668</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.962</v>
@@ -3839,10 +3842,10 @@
         <v>200798.4444</v>
       </c>
       <c r="K19" s="1">
-        <v>148139.3782</v>
+        <v>148166.8577</v>
       </c>
       <c r="L19" s="1">
-        <v>12.6683</v>
+        <v>12.6706</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2659</v>
@@ -3892,10 +3895,10 @@
         <v>194125.9781</v>
       </c>
       <c r="K20" s="1">
-        <v>165266.1498</v>
+        <v>165293.6293</v>
       </c>
       <c r="L20" s="1">
-        <v>12.7935</v>
+        <v>12.7957</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.4103</v>
@@ -3945,10 +3948,10 @@
         <v>206234.7539</v>
       </c>
       <c r="K21" s="1">
-        <v>197260.1777</v>
+        <v>197287.6571</v>
       </c>
       <c r="L21" s="1">
-        <v>12.7092</v>
+        <v>12.7109</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.3976</v>
@@ -3998,10 +4001,10 @@
         <v>215998.5227</v>
       </c>
       <c r="K22" s="1">
-        <v>205054.7397</v>
+        <v>205082.2192</v>
       </c>
       <c r="L22" s="1">
-        <v>12.6985</v>
+        <v>12.7002</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.9013</v>
@@ -4051,10 +4054,10 @@
         <v>241756.3579</v>
       </c>
       <c r="K23" s="1">
-        <v>215300.7283</v>
+        <v>215328.2078</v>
       </c>
       <c r="L23" s="1">
-        <v>12.6851</v>
+        <v>12.6867</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.3527</v>
@@ -4104,10 +4107,10 @@
         <v>259448.0292</v>
       </c>
       <c r="K24" s="1">
-        <v>216774.4387</v>
+        <v>216801.9181</v>
       </c>
       <c r="L24" s="1">
-        <v>12.6867</v>
+        <v>12.6883</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8804</v>
@@ -4157,10 +4160,10 @@
         <v>278527.6345</v>
       </c>
       <c r="K25" s="1">
-        <v>219086.1171</v>
+        <v>219113.5966</v>
       </c>
       <c r="L25" s="1">
-        <v>12.6937</v>
+        <v>12.6953</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6268</v>
@@ -4210,10 +4213,10 @@
         <v>309198.0734</v>
       </c>
       <c r="K26" s="1">
-        <v>220000.9253</v>
+        <v>220028.4048</v>
       </c>
       <c r="L26" s="1">
-        <v>12.6983</v>
+        <v>12.6999</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3636</v>
@@ -4263,10 +4266,10 @@
         <v>331790.8969</v>
       </c>
       <c r="K27" s="1">
-        <v>217081.9499</v>
+        <v>217121.0805</v>
       </c>
       <c r="L27" s="1">
-        <v>12.6755</v>
+        <v>12.6778</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8711</v>
@@ -4316,10 +4319,10 @@
         <v>316533.4439</v>
       </c>
       <c r="K28" s="1">
-        <v>214478.7267</v>
+        <v>214528.2571</v>
       </c>
       <c r="L28" s="1">
-        <v>12.6484</v>
+        <v>12.6513</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1252</v>
@@ -4369,10 +4372,10 @@
         <v>338968.9264</v>
       </c>
       <c r="K29" s="1">
-        <v>249877.5314</v>
+        <v>249927.0617</v>
       </c>
       <c r="L29" s="1">
-        <v>12.8117</v>
+        <v>12.8142</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1934</v>
@@ -4422,10 +4425,10 @@
         <v>350299.3129</v>
       </c>
       <c r="K30" s="1">
-        <v>254951.603</v>
+        <v>255001.1334</v>
       </c>
       <c r="L30" s="1">
-        <v>12.8359</v>
+        <v>12.8384</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1176</v>
@@ -4475,10 +4478,10 @@
         <v>358716.8714</v>
       </c>
       <c r="K31" s="1">
-        <v>263635.644</v>
+        <v>263685.1743</v>
       </c>
       <c r="L31" s="1">
-        <v>12.8772</v>
+        <v>12.8797</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3311</v>
@@ -4528,10 +4531,10 @@
         <v>403668.7544</v>
       </c>
       <c r="K32" s="1">
-        <v>275229.7103</v>
+        <v>275279.2406</v>
       </c>
       <c r="L32" s="1">
-        <v>12.9261</v>
+        <v>12.9284</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3637</v>
@@ -4581,10 +4584,10 @@
         <v>414329.26</v>
       </c>
       <c r="K33" s="1">
-        <v>259381.0221</v>
+        <v>259493.8985</v>
       </c>
       <c r="L33" s="1">
-        <v>12.802</v>
+        <v>12.8076</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6447</v>
@@ -4634,10 +4637,10 @@
         <v>409315.4742</v>
       </c>
       <c r="K34" s="1">
-        <v>268757.9768</v>
+        <v>268870.8532</v>
       </c>
       <c r="L34" s="1">
-        <v>12.8777</v>
+        <v>12.8831</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.486</v>
@@ -4687,10 +4690,10 @@
         <v>456955.6136</v>
       </c>
       <c r="K35" s="1">
-        <v>293834.4441</v>
+        <v>293947.3206</v>
       </c>
       <c r="L35" s="1">
-        <v>13.0137</v>
+        <v>13.0187</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.1958</v>
@@ -4740,10 +4743,10 @@
         <v>482539.9553</v>
       </c>
       <c r="K36" s="1">
-        <v>284841.2465</v>
+        <v>284990.0563</v>
       </c>
       <c r="L36" s="1">
-        <v>12.9477</v>
+        <v>12.9545</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4264</v>
@@ -4793,10 +4796,10 @@
         <v>497524.6738</v>
       </c>
       <c r="K37" s="1">
-        <v>279234.5169</v>
+        <v>279405.7147</v>
       </c>
       <c r="L37" s="1">
-        <v>12.8954</v>
+        <v>12.9033</v>
       </c>
       <c r="M37" s="1">
         <v>0.75</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>17.107</v>
@@ -4846,10 +4849,10 @@
         <v>537036.0186</v>
       </c>
       <c r="K38" s="1">
-        <v>284269.8979</v>
+        <v>284441.0957</v>
       </c>
       <c r="L38" s="1">
-        <v>12.945</v>
+        <v>12.9528</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8083</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5636</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.1788</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.5668</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.962</v>
@@ -5879,10 +5882,10 @@
         <v>201456.2801</v>
       </c>
       <c r="K19" s="1">
-        <v>154522.1614</v>
+        <v>154548.9039</v>
       </c>
       <c r="L19" s="1">
-        <v>12.6934</v>
+        <v>12.6956</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2659</v>
@@ -5932,10 +5935,10 @@
         <v>194040.3781</v>
       </c>
       <c r="K20" s="1">
-        <v>172828.0264</v>
+        <v>172854.7689</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8193</v>
+        <v>12.8213</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.4103</v>
@@ -5985,10 +5988,10 @@
         <v>206245.1139</v>
       </c>
       <c r="K21" s="1">
-        <v>206723.5068</v>
+        <v>206750.2493</v>
       </c>
       <c r="L21" s="1">
-        <v>12.7295</v>
+        <v>12.7311</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.3976</v>
@@ -6038,10 +6041,10 @@
         <v>215995.2699</v>
       </c>
       <c r="K22" s="1">
-        <v>215412.0717</v>
+        <v>215438.8142</v>
       </c>
       <c r="L22" s="1">
-        <v>12.7173</v>
+        <v>12.7189</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.9013</v>
@@ -6091,10 +6094,10 @@
         <v>242545.0275</v>
       </c>
       <c r="K23" s="1">
-        <v>226721.3011</v>
+        <v>226748.0436</v>
       </c>
       <c r="L23" s="1">
-        <v>12.7023</v>
+        <v>12.7038</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.3527</v>
@@ -6144,10 +6147,10 @@
         <v>260651.9522</v>
       </c>
       <c r="K24" s="1">
-        <v>228861.4496</v>
+        <v>228888.1922</v>
       </c>
       <c r="L24" s="1">
-        <v>12.7044</v>
+        <v>12.7059</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8804</v>
@@ -6197,10 +6200,10 @@
         <v>280246.4079</v>
       </c>
       <c r="K25" s="1">
-        <v>231917.9091</v>
+        <v>231944.6516</v>
       </c>
       <c r="L25" s="1">
-        <v>12.7128</v>
+        <v>12.7143</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6268</v>
@@ -6250,10 +6253,10 @@
         <v>312126.6639</v>
       </c>
       <c r="K26" s="1">
-        <v>233533.2092</v>
+        <v>233559.9517</v>
       </c>
       <c r="L26" s="1">
-        <v>12.7204</v>
+        <v>12.7218</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3636</v>
@@ -6303,10 +6306,10 @@
         <v>335504.8338</v>
       </c>
       <c r="K27" s="1">
-        <v>231117.7283</v>
+        <v>231154.1123</v>
       </c>
       <c r="L27" s="1">
-        <v>12.7028</v>
+        <v>12.7048</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8711</v>
@@ -6356,10 +6359,10 @@
         <v>318603.7904</v>
       </c>
       <c r="K28" s="1">
-        <v>229059.2908</v>
+        <v>229103.8982</v>
       </c>
       <c r="L28" s="1">
-        <v>12.6829</v>
+        <v>12.6854</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1252</v>
@@ -6409,10 +6412,10 @@
         <v>341858.9946</v>
       </c>
       <c r="K29" s="1">
-        <v>267498.4219</v>
+        <v>267543.0292</v>
       </c>
       <c r="L29" s="1">
-        <v>12.8444</v>
+        <v>12.8465</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1934</v>
@@ -6462,10 +6465,10 @@
         <v>353280.193</v>
       </c>
       <c r="K30" s="1">
-        <v>273683.1366</v>
+        <v>273727.7439</v>
       </c>
       <c r="L30" s="1">
-        <v>12.8713</v>
+        <v>12.8734</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1176</v>
@@ -6515,10 +6518,10 @@
         <v>361578.7427</v>
       </c>
       <c r="K31" s="1">
-        <v>283776.2859</v>
+        <v>283820.8933</v>
       </c>
       <c r="L31" s="1">
-        <v>12.9149</v>
+        <v>12.917</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3311</v>
@@ -6568,10 +6571,10 @@
         <v>409158.5177</v>
       </c>
       <c r="K32" s="1">
-        <v>297046.6483</v>
+        <v>297091.2556</v>
       </c>
       <c r="L32" s="1">
-        <v>12.9653</v>
+        <v>12.9673</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3637</v>
@@ -6621,10 +6624,10 @@
         <v>419871.0417</v>
       </c>
       <c r="K33" s="1">
-        <v>280850.8734</v>
+        <v>280960.214</v>
       </c>
       <c r="L33" s="1">
-        <v>12.8497</v>
+        <v>12.8547</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6447</v>
@@ -6674,10 +6677,10 @@
         <v>413629.8954</v>
       </c>
       <c r="K34" s="1">
-        <v>291854.3785</v>
+        <v>291963.7191</v>
       </c>
       <c r="L34" s="1">
-        <v>12.9303</v>
+        <v>12.9352</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.486</v>
@@ -6727,10 +6730,10 @@
         <v>464387.3472</v>
       </c>
       <c r="K35" s="1">
-        <v>319893.9726</v>
+        <v>320003.3133</v>
       </c>
       <c r="L35" s="1">
-        <v>13.0664</v>
+        <v>13.0709</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.1958</v>
@@ -6780,10 +6783,10 @@
         <v>491328.707</v>
       </c>
       <c r="K36" s="1">
-        <v>311092.6616</v>
+        <v>311237.1689</v>
       </c>
       <c r="L36" s="1">
-        <v>13.0083</v>
+        <v>13.0143</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4264</v>
@@ -6833,10 +6836,10 @@
         <v>506761.3919</v>
       </c>
       <c r="K37" s="1">
-        <v>305978.9112</v>
+        <v>306143.838</v>
       </c>
       <c r="L37" s="1">
-        <v>12.9653</v>
+        <v>12.9723</v>
       </c>
       <c r="M37" s="1">
         <v>0.75</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>17.107</v>
@@ -6886,10 +6889,10 @@
         <v>548962.6052</v>
       </c>
       <c r="K38" s="1">
-        <v>312479.443</v>
+        <v>312644.3698</v>
       </c>
       <c r="L38" s="1">
-        <v>13.0228</v>
+        <v>13.0297</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8083</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5636</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.1788</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.5668</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.962</v>
@@ -7919,10 +7922,10 @@
         <v>201962.8251</v>
       </c>
       <c r="K19" s="1">
-        <v>161411.0626</v>
+        <v>161436.9343</v>
       </c>
       <c r="L19" s="1">
-        <v>12.7319</v>
+        <v>12.7339</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2659</v>
@@ -7972,10 +7975,10 @@
         <v>193761.7831</v>
       </c>
       <c r="K20" s="1">
-        <v>180984.5697</v>
+        <v>181010.4414</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8569</v>
+        <v>12.8588</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.4103</v>
@@ -8025,10 +8028,10 @@
         <v>206033.2825</v>
       </c>
       <c r="K21" s="1">
-        <v>212426.6688</v>
+        <v>212452.5405</v>
       </c>
       <c r="L21" s="1">
-        <v>12.7698</v>
+        <v>12.7714</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.3976</v>
@@ -8078,10 +8081,10 @@
         <v>215771.8374</v>
       </c>
       <c r="K22" s="1">
-        <v>222426.6688</v>
+        <v>222452.5405</v>
       </c>
       <c r="L22" s="1">
-        <v>12.7544</v>
+        <v>12.7559</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.9013</v>
@@ -8131,10 +8134,10 @@
         <v>242750.9155</v>
       </c>
       <c r="K23" s="1">
-        <v>232426.6688</v>
+        <v>232452.5405</v>
       </c>
       <c r="L23" s="1">
-        <v>12.7398</v>
+        <v>12.7412</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.3527</v>
@@ -8184,10 +8187,10 @@
         <v>261273.861</v>
       </c>
       <c r="K24" s="1">
-        <v>242278.6581</v>
+        <v>242304.5297</v>
       </c>
       <c r="L24" s="1">
-        <v>12.7473</v>
+        <v>12.7486</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8804</v>
@@ -8237,10 +8240,10 @@
         <v>281420.5072</v>
       </c>
       <c r="K25" s="1">
-        <v>246179.0664</v>
+        <v>246204.938</v>
       </c>
       <c r="L25" s="1">
-        <v>12.7568</v>
+        <v>12.7582</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6268</v>
@@ -8290,10 +8293,10 @@
         <v>314601.3338</v>
       </c>
       <c r="K26" s="1">
-        <v>248598.1244</v>
+        <v>248623.9961</v>
       </c>
       <c r="L26" s="1">
-        <v>12.7671</v>
+        <v>12.7684</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3636</v>
@@ -8343,10 +8346,10 @@
         <v>338827.7989</v>
       </c>
       <c r="K27" s="1">
-        <v>246781.7518</v>
+        <v>246814.8735</v>
       </c>
       <c r="L27" s="1">
-        <v>12.755</v>
+        <v>12.7567</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8711</v>
@@ -8396,10 +8399,10 @@
         <v>320145.4047</v>
       </c>
       <c r="K28" s="1">
-        <v>245373.9827</v>
+        <v>245412.7285</v>
       </c>
       <c r="L28" s="1">
-        <v>12.7425</v>
+        <v>12.7445</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1252</v>
@@ -8449,10 +8452,10 @@
         <v>344290.0004</v>
       </c>
       <c r="K29" s="1">
-        <v>287175.86</v>
+        <v>287214.6057</v>
       </c>
       <c r="L29" s="1">
-        <v>12.8987</v>
+        <v>12.9004</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1934</v>
@@ -8502,10 +8505,10 @@
         <v>355810.0156</v>
       </c>
       <c r="K30" s="1">
-        <v>294641.6119</v>
+        <v>294680.3576</v>
       </c>
       <c r="L30" s="1">
-        <v>12.9277</v>
+        <v>12.9294</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1176</v>
@@ -8555,10 +8558,10 @@
         <v>363977.9679</v>
       </c>
       <c r="K31" s="1">
-        <v>306351.4711</v>
+        <v>306390.2168</v>
       </c>
       <c r="L31" s="1">
-        <v>12.9728</v>
+        <v>12.9745</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3311</v>
@@ -8608,10 +8611,10 @@
         <v>414441.9721</v>
       </c>
       <c r="K32" s="1">
-        <v>321542.4642</v>
+        <v>321581.2099</v>
       </c>
       <c r="L32" s="1">
-        <v>13.0239</v>
+        <v>13.0254</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3637</v>
@@ -8661,10 +8664,10 @@
         <v>425211.8392</v>
       </c>
       <c r="K33" s="1">
-        <v>305057.0513</v>
+        <v>305161.688</v>
       </c>
       <c r="L33" s="1">
-        <v>12.9176</v>
+        <v>12.9221</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6447</v>
@@ -8714,10 +8717,10 @@
         <v>417612.7196</v>
       </c>
       <c r="K34" s="1">
-        <v>317951.9727</v>
+        <v>318056.6094</v>
       </c>
       <c r="L34" s="1">
-        <v>13.0025</v>
+        <v>13.0068</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.486</v>
@@ -8767,10 +8770,10 @@
         <v>471823.8911</v>
       </c>
       <c r="K35" s="1">
-        <v>349374.4691</v>
+        <v>349479.1058</v>
       </c>
       <c r="L35" s="1">
-        <v>13.1371</v>
+        <v>13.141</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.1958</v>
@@ -8820,10 +8823,10 @@
         <v>500276.5302</v>
       </c>
       <c r="K36" s="1">
-        <v>340898.7142</v>
+        <v>341037.2168</v>
       </c>
       <c r="L36" s="1">
-        <v>13.0872</v>
+        <v>13.0925</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4264</v>
@@ -8873,10 +8876,10 @@
         <v>516209.8088</v>
       </c>
       <c r="K37" s="1">
-        <v>336454.0974</v>
+        <v>336610.3476</v>
       </c>
       <c r="L37" s="1">
-        <v>13.0538</v>
+        <v>13.0598</v>
       </c>
       <c r="M37" s="1">
         <v>0.75</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>17.107</v>
@@ -8926,10 +8929,10 @@
         <v>561421.6652</v>
       </c>
       <c r="K38" s="1">
-        <v>344719.8405</v>
+        <v>344876.0907</v>
       </c>
       <c r="L38" s="1">
-        <v>13.1189</v>
+        <v>13.1248</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8083</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5636</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.1788</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.5668</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.962</v>
@@ -9959,10 +9962,10 @@
         <v>202412.2516</v>
       </c>
       <c r="K19" s="1">
-        <v>168664.3427</v>
+        <v>168689.1972</v>
       </c>
       <c r="L19" s="1">
-        <v>12.7699</v>
+        <v>12.7718</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2659</v>
@@ -10012,10 +10015,10 @@
         <v>193381.9037</v>
       </c>
       <c r="K20" s="1">
-        <v>189600.5337</v>
+        <v>189625.3882</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8941</v>
+        <v>12.8958</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.4103</v>
@@ -10065,10 +10068,10 @@
         <v>205681.5246</v>
       </c>
       <c r="K21" s="1">
-        <v>212978.9611</v>
+        <v>213003.8156</v>
       </c>
       <c r="L21" s="1">
-        <v>12.8249</v>
+        <v>12.8264</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.3976</v>
@@ -10118,10 +10121,10 @@
         <v>215420.4401</v>
       </c>
       <c r="K22" s="1">
-        <v>222978.9611</v>
+        <v>223003.8156</v>
       </c>
       <c r="L22" s="1">
-        <v>12.8069</v>
+        <v>12.8084</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.9013</v>
@@ -10171,10 +10174,10 @@
         <v>242372.4609</v>
       </c>
       <c r="K23" s="1">
-        <v>232978.9611</v>
+        <v>233003.8156</v>
       </c>
       <c r="L23" s="1">
-        <v>12.7899</v>
+        <v>12.7913</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.3527</v>
@@ -10224,10 +10227,10 @@
         <v>261128.8809</v>
       </c>
       <c r="K24" s="1">
-        <v>250813.8245</v>
+        <v>250838.679</v>
       </c>
       <c r="L24" s="1">
-        <v>12.7996</v>
+        <v>12.8009</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8804</v>
@@ -10277,10 +10280,10 @@
         <v>281801.4421</v>
       </c>
       <c r="K25" s="1">
-        <v>260813.8245</v>
+        <v>260838.679</v>
       </c>
       <c r="L25" s="1">
-        <v>12.8209</v>
+        <v>12.8221</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6268</v>
@@ -10330,10 +10333,10 @@
         <v>316336.7858</v>
       </c>
       <c r="K26" s="1">
-        <v>265365.7874</v>
+        <v>265390.642</v>
       </c>
       <c r="L26" s="1">
-        <v>12.8381</v>
+        <v>12.8393</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3636</v>
@@ -10383,10 +10386,10 @@
         <v>341479.9197</v>
       </c>
       <c r="K27" s="1">
-        <v>264257.1346</v>
+        <v>264286.4144</v>
       </c>
       <c r="L27" s="1">
-        <v>12.8314</v>
+        <v>12.8329</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8711</v>
@@ -10436,10 +10439,10 @@
         <v>320865.9741</v>
       </c>
       <c r="K28" s="1">
-        <v>263620.9125</v>
+        <v>263652.7339</v>
       </c>
       <c r="L28" s="1">
-        <v>12.8263</v>
+        <v>12.8278</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1252</v>
@@ -10489,10 +10492,10 @@
         <v>345976.0174</v>
       </c>
       <c r="K29" s="1">
-        <v>309143.7317</v>
+        <v>309175.5531</v>
       </c>
       <c r="L29" s="1">
-        <v>12.9737</v>
+        <v>12.9751</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1934</v>
@@ -10542,10 +10545,10 @@
         <v>357603.6167</v>
       </c>
       <c r="K30" s="1">
-        <v>318084.5294</v>
+        <v>318116.3508</v>
       </c>
       <c r="L30" s="1">
-        <v>13.0042</v>
+        <v>13.0055</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1176</v>
@@ -10595,10 +10598,10 @@
         <v>365628.1613</v>
       </c>
       <c r="K31" s="1">
-        <v>331647.6299</v>
+        <v>331679.4514</v>
       </c>
       <c r="L31" s="1">
-        <v>13.0499</v>
+        <v>13.0511</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3311</v>
@@ -10648,10 +10651,10 @@
         <v>419259.8536</v>
       </c>
       <c r="K32" s="1">
-        <v>349038.1806</v>
+        <v>349070.002</v>
       </c>
       <c r="L32" s="1">
-        <v>13.1005</v>
+        <v>13.1017</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3637</v>
@@ -10701,10 +10704,10 @@
         <v>430092.9804</v>
       </c>
       <c r="K33" s="1">
-        <v>332337.3058</v>
+        <v>332435.8795</v>
       </c>
       <c r="L33" s="1">
-        <v>13.0043</v>
+        <v>13.0081</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6447</v>
@@ -10754,10 +10757,10 @@
         <v>420990.1544</v>
       </c>
       <c r="K34" s="1">
-        <v>347429.7365</v>
+        <v>347528.3101</v>
       </c>
       <c r="L34" s="1">
-        <v>13.0926</v>
+        <v>13.0963</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.486</v>
@@ -10807,10 +10810,10 @@
         <v>479030.9825</v>
       </c>
       <c r="K35" s="1">
-        <v>382716.4283</v>
+        <v>382815.002</v>
       </c>
       <c r="L35" s="1">
-        <v>13.224</v>
+        <v>13.2274</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.1958</v>
@@ -10860,10 +10863,10 @@
         <v>509168.2857</v>
       </c>
       <c r="K36" s="1">
-        <v>374730.342</v>
+        <v>374860.825</v>
       </c>
       <c r="L36" s="1">
-        <v>13.1824</v>
+        <v>13.187</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4264</v>
@@ -10913,10 +10916,10 @@
         <v>525661.535</v>
       </c>
       <c r="K37" s="1">
-        <v>371168.7811</v>
+        <v>371313.4855</v>
       </c>
       <c r="L37" s="1">
-        <v>13.1588</v>
+        <v>13.1639</v>
       </c>
       <c r="M37" s="1">
         <v>0.75</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>17.107</v>
@@ -10966,10 +10969,10 @@
         <v>574246.6058</v>
       </c>
       <c r="K38" s="1">
-        <v>381555.8065</v>
+        <v>381700.5109</v>
       </c>
       <c r="L38" s="1">
-        <v>13.231</v>
+        <v>13.236</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>13.8157</v>
       </c>
       <c r="D3" s="1">
-        <v>12.945</v>
+        <v>12.9528</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0228</v>
+        <v>13.0297</v>
       </c>
       <c r="F3" s="1">
-        <v>13.1189</v>
+        <v>13.1248</v>
       </c>
       <c r="G3" s="1">
-        <v>13.231</v>
+        <v>13.236</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>103600.6113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2825</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.888</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.7559</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.6279</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.5044</v>
       </c>
     </row>
   </sheetData>
